--- a/memory utilization as matrix.xlsx
+++ b/memory utilization as matrix.xlsx
@@ -104,6 +104,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -482,6 +485,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,11 +668,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="271438032"/>
-        <c:axId val="271433720"/>
+        <c:axId val="218836536"/>
+        <c:axId val="218832592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="271438032"/>
+        <c:axId val="218836536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271433720"/>
+        <c:crossAx val="218832592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -719,7 +723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271433720"/>
+        <c:axId val="218832592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271438032"/>
+        <c:crossAx val="218836536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2588,10 +2592,14 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" activeCellId="1" sqref="D12:J12 D25:J25"/>
+      <selection activeCell="A9" sqref="A9:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="31" t="s">
@@ -3124,31 +3132,31 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D23">
+      <c r="D23" s="32">
         <f>D22*D22</f>
         <v>1.5625000000000028E-6</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="32">
         <f t="shared" ref="E23:I23" si="5">E22*E22</f>
         <v>5.6250000000000097E-7</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="32">
         <f t="shared" si="5"/>
         <v>9.4575624999999903E-3</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="32">
         <f t="shared" si="5"/>
         <v>1.5625000000000028E-6</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="32">
         <f t="shared" si="5"/>
         <v>1.5625000000000028E-6</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="32">
         <f t="shared" si="5"/>
         <v>5.6250000000000097E-7</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="32">
         <f>J22*J22</f>
         <v>1.5625000000000028E-6</v>
       </c>
@@ -3161,31 +3169,31 @@
         <f>SUM(D24:J24)</f>
         <v>7.5719499999999926E-2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="32">
         <f>8*D23</f>
         <v>1.2500000000000023E-5</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="32">
         <f>8*E23</f>
         <v>4.5000000000000077E-6</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="32">
         <f>8*F23</f>
         <v>7.5660499999999922E-2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="32">
         <f>8*G23</f>
         <v>1.2500000000000023E-5</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="32">
         <f t="shared" ref="H24:J24" si="6">8*H23</f>
         <v>1.2500000000000023E-5</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="32">
         <f t="shared" si="6"/>
         <v>4.5000000000000077E-6</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="32">
         <f t="shared" si="6"/>
         <v>1.2500000000000023E-5</v>
       </c>
@@ -3234,6 +3242,7 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>